--- a/data/raw/sample_run_2019-03-06_CORRECTED.xlsx
+++ b/data/raw/sample_run_2019-03-06_CORRECTED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\204.46.92.163\Public\Astoria Pacific nutrient runs\Steven Shivers Cyano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Public\Astoria Pacific nutrient runs\Steven Shivers Cyano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD18AFF2-0785-4985-AAC6-77C658DDB4D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B17FD-D85B-43E5-A375-6F7F0A71630D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,9 +710,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -740,6 +737,9 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1112,33 +1112,33 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1673,11 +1673,11 @@
       <c r="K21" s="7">
         <v>0.23499999999999999</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <f>((100-H21)/100)*-100</f>
         <v>-1.090999999999994</v>
       </c>
-      <c r="M21" s="12"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1713,8 +1713,8 @@
       <c r="K22" s="7">
         <v>5.9560000000000004</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="11">
+      <c r="L22" s="11"/>
+      <c r="M22" s="10">
         <f>((6-K22)/6)*-100</f>
         <v>-0.73333333333332651</v>
       </c>
@@ -1751,8 +1751,8 @@
       <c r="K23" s="7">
         <v>-0.59799999999999998</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -1786,8 +1786,8 @@
       <c r="K24" s="7">
         <v>183.49199999999999</v>
       </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -1821,8 +1821,8 @@
       <c r="K25" s="7">
         <v>1.0920000000000001</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -1856,8 +1856,8 @@
       <c r="K26" s="7">
         <v>0.11899999999999999</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -1881,7 +1881,7 @@
       <c r="G27" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="17">
         <v>1.528</v>
       </c>
       <c r="I27" s="6">
@@ -1890,11 +1890,11 @@
       <c r="J27" s="6">
         <v>0</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="17">
         <v>0.42099999999999999</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -1918,7 +1918,7 @@
       <c r="G28" s="6">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="17">
         <v>116.08199999999999</v>
       </c>
       <c r="I28" s="6">
@@ -1927,11 +1927,11 @@
       <c r="J28" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="17">
         <v>3.339</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -1955,7 +1955,7 @@
       <c r="G29" s="6">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <v>121.464</v>
       </c>
       <c r="I29" s="6">
@@ -1964,11 +1964,11 @@
       <c r="J29" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="17">
         <v>3.4220000000000002</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -1992,7 +1992,7 @@
       <c r="G30" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="17">
         <v>123.09399999999999</v>
       </c>
       <c r="I30" s="6">
@@ -2001,11 +2001,11 @@
       <c r="J30" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="17">
         <v>3.464</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -2029,7 +2029,7 @@
       <c r="G31" s="6">
         <v>0.154</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="17">
         <v>67.34</v>
       </c>
       <c r="I31" s="6">
@@ -2038,11 +2038,11 @@
       <c r="J31" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="17">
         <v>1.2150000000000001</v>
       </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -2066,7 +2066,7 @@
       <c r="G32" s="6">
         <v>0.151</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="17">
         <v>65.988</v>
       </c>
       <c r="I32" s="6">
@@ -2075,11 +2075,11 @@
       <c r="J32" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="17">
         <v>1.268</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -2103,7 +2103,7 @@
       <c r="G33" s="6">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="17">
         <v>64.33</v>
       </c>
       <c r="I33" s="6">
@@ -2112,11 +2112,11 @@
       <c r="J33" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="17">
         <v>1.1419999999999999</v>
       </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -2140,7 +2140,7 @@
       <c r="G34" s="6">
         <v>9.4E-2</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <v>40.311999999999998</v>
       </c>
       <c r="I34" s="6">
@@ -2149,11 +2149,11 @@
       <c r="J34" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="17">
         <v>1.214</v>
       </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -2177,7 +2177,7 @@
       <c r="G35" s="6">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="17">
         <v>39.091999999999999</v>
       </c>
       <c r="I35" s="6">
@@ -2186,11 +2186,11 @@
       <c r="J35" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="17">
         <v>1.206</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -2214,7 +2214,7 @@
       <c r="G36" s="6">
         <v>9.4E-2</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="17">
         <v>40.491999999999997</v>
       </c>
       <c r="I36" s="6">
@@ -2223,24 +2223,24 @@
       <c r="J36" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="17">
         <v>1.204</v>
       </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="13">
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12">
         <f>((H36-H39)/((H36+H39)/2))*100</f>
         <v>3.628317471492684</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="12">
         <f>((K36-K39)/((K36+K39)/2))*100</f>
         <v>-5.2567731500202139</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="13">
         <f>AVERAGE(H36,H39)</f>
         <v>39.770499999999998</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q36" s="13">
         <f>AVERAGE(K36,K39)</f>
         <v>1.2364999999999999</v>
       </c>
@@ -2333,7 +2333,7 @@
       <c r="G39" s="6">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="17">
         <v>39.048999999999999</v>
       </c>
       <c r="I39" s="6">
@@ -2342,7 +2342,7 @@
       <c r="J39" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="17">
         <v>1.2689999999999999</v>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       <c r="G40" s="6">
         <v>0.153</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="17">
         <v>66.551000000000002</v>
       </c>
       <c r="I40" s="6">
@@ -2377,7 +2377,7 @@
       <c r="J40" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="17">
         <v>1.365</v>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
       <c r="G41" s="6">
         <v>0.15</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="17">
         <v>65.198999999999998</v>
       </c>
       <c r="I41" s="6">
@@ -2412,7 +2412,7 @@
       <c r="J41" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="17">
         <v>1.278</v>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       <c r="G42" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="17">
         <v>6.2770000000000001</v>
       </c>
       <c r="I42" s="6">
@@ -2447,7 +2447,7 @@
       <c r="J42" s="6">
         <v>0</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="17">
         <v>0.54200000000000004</v>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
       <c r="G43" s="6">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="17">
         <v>62.478000000000002</v>
       </c>
       <c r="I43" s="6">
@@ -2482,7 +2482,7 @@
       <c r="J43" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="17">
         <v>1.2410000000000001</v>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       <c r="G44" s="6">
         <v>0.218</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="17">
         <v>95.781000000000006</v>
       </c>
       <c r="I44" s="6">
@@ -2517,14 +2517,14 @@
       <c r="J44" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="17">
         <v>0.59599999999999997</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="10">
         <f>((100-H44)/100)*-100</f>
         <v>-4.2189999999999941</v>
       </c>
-      <c r="M44" s="12"/>
+      <c r="M44" s="11"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -2548,7 +2548,7 @@
       <c r="G45" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="17">
         <v>12.909000000000001</v>
       </c>
       <c r="I45" s="6">
@@ -2557,11 +2557,11 @@
       <c r="J45" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="17">
         <v>6.2629999999999999</v>
       </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="11">
+      <c r="L45" s="11"/>
+      <c r="M45" s="10">
         <f>((6-K45)/6)*-100</f>
         <v>4.3833333333333311</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="G46" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="17">
         <v>24.431000000000001</v>
       </c>
       <c r="I46" s="6">
@@ -2597,7 +2597,7 @@
       <c r="J46" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="17">
         <v>0.80900000000000005</v>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       <c r="G47" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="17">
         <v>23.832000000000001</v>
       </c>
       <c r="I47" s="6">
@@ -2632,7 +2632,7 @@
       <c r="J47" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="17">
         <v>1.2050000000000001</v>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       <c r="G48" s="6">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="17">
         <v>27.347000000000001</v>
       </c>
       <c r="I48" s="6">
@@ -2667,7 +2667,7 @@
       <c r="J48" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="17">
         <v>0.90600000000000003</v>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       <c r="G49" s="6">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="17">
         <v>37.575000000000003</v>
       </c>
       <c r="I49" s="6">
@@ -2702,7 +2702,7 @@
       <c r="J49" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K49" s="18">
+      <c r="K49" s="17">
         <v>1.1990000000000001</v>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       <c r="G50" s="6">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="17">
         <v>37.258000000000003</v>
       </c>
       <c r="I50" s="6">
@@ -2737,7 +2737,7 @@
       <c r="J50" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="17">
         <v>1.069</v>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       <c r="G53" s="6">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="17">
         <v>36.933999999999997</v>
       </c>
       <c r="I53" s="6">
@@ -2837,22 +2837,22 @@
       <c r="J53" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K53" s="18">
+      <c r="K53" s="17">
         <v>1.0920000000000001</v>
       </c>
-      <c r="N53" s="13">
+      <c r="N53" s="12">
         <f>((H53-H54)/((H53+H54)/2))*100</f>
         <v>-2.3915893100773267</v>
       </c>
-      <c r="O53" s="13">
+      <c r="O53" s="12">
         <f>((K53-K54)/((K53+K54)/2))*100</f>
         <v>-1.9047619047618962</v>
       </c>
-      <c r="P53" s="14">
+      <c r="P53" s="13">
         <f>AVERAGE(H53,H54)</f>
         <v>37.381</v>
       </c>
-      <c r="Q53" s="14">
+      <c r="Q53" s="13">
         <f>AVERAGE(K53,K54)</f>
         <v>1.1025</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="G54" s="6">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="17">
         <v>37.828000000000003</v>
       </c>
       <c r="I54" s="6">
@@ -2888,7 +2888,7 @@
       <c r="J54" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K54" s="17">
         <v>1.113</v>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       <c r="G55" s="6">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="17">
         <v>62.81</v>
       </c>
       <c r="I55" s="6">
@@ -2923,7 +2923,7 @@
       <c r="J55" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K55" s="18">
+      <c r="K55" s="17">
         <v>1.4630000000000001</v>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       <c r="G56" s="6">
         <v>0.14099999999999999</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="17">
         <v>61.22</v>
       </c>
       <c r="I56" s="6">
@@ -2958,11 +2958,11 @@
       <c r="J56" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K56" s="17">
         <v>1.9419999999999999</v>
       </c>
-      <c r="L56" s="15"/>
-      <c r="M56" s="12"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="11"/>
     </row>
     <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
@@ -2986,7 +2986,7 @@
       <c r="G57" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="17">
         <v>10.334</v>
       </c>
       <c r="I57" s="6">
@@ -2995,11 +2995,11 @@
       <c r="J57" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K57" s="18">
+      <c r="K57" s="17">
         <v>5.9870000000000001</v>
       </c>
-      <c r="L57" s="12"/>
-      <c r="M57" s="11">
+      <c r="L57" s="11"/>
+      <c r="M57" s="10">
         <f>((6-K57)/6)*-100</f>
         <v>-0.21666666666666501</v>
       </c>
@@ -3026,7 +3026,7 @@
       <c r="G58" s="6">
         <v>0.14199999999999999</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="17">
         <v>61.774000000000001</v>
       </c>
       <c r="I58" s="6">
@@ -3035,7 +3035,7 @@
       <c r="J58" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K58" s="18">
+      <c r="K58" s="17">
         <v>1.534</v>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       <c r="G59" s="6">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="17">
         <v>39.317</v>
       </c>
       <c r="I59" s="6">
@@ -3070,7 +3070,7 @@
       <c r="J59" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K59" s="18">
+      <c r="K59" s="17">
         <v>1.127</v>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       <c r="G60" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="17">
         <v>4.3840000000000003</v>
       </c>
       <c r="I60" s="6">
@@ -3105,7 +3105,7 @@
       <c r="J60" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K60" s="18">
+      <c r="K60" s="17">
         <v>0.81699999999999995</v>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       <c r="G61" s="6">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="17">
         <v>37.235999999999997</v>
       </c>
       <c r="I61" s="6">
@@ -3140,7 +3140,7 @@
       <c r="J61" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K61" s="18">
+      <c r="K61" s="17">
         <v>1.258</v>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       <c r="G62" s="6">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="17">
         <v>37.814</v>
       </c>
       <c r="I62" s="6">
@@ -3175,7 +3175,7 @@
       <c r="J62" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K62" s="18">
+      <c r="K62" s="17">
         <v>1.1779999999999999</v>
       </c>
     </row>
@@ -3279,11 +3279,11 @@
       <c r="K65" s="7">
         <v>0.55700000000000005</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65" s="10">
         <f>((100-H65)/100)*-100</f>
         <v>-13.816000000000003</v>
       </c>
-      <c r="M65" s="12"/>
+      <c r="M65" s="11"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
@@ -3319,8 +3319,8 @@
       <c r="K66" s="7">
         <v>5.9749999999999996</v>
       </c>
-      <c r="L66" s="12"/>
-      <c r="M66" s="11">
+      <c r="L66" s="11"/>
+      <c r="M66" s="10">
         <f>((6-K66)/6)*-100</f>
         <v>-0.41666666666667257</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="E67" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="18">
         <v>0.128</v>
       </c>
       <c r="G67" s="6">
@@ -3356,7 +3356,7 @@
       <c r="J67" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K67" s="18">
+      <c r="K67" s="17">
         <v>1.5109999999999999</v>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       <c r="E68" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="18">
         <v>0.14299999999999999</v>
       </c>
       <c r="G68" s="6">
@@ -3391,7 +3391,7 @@
       <c r="J68" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K68" s="18">
+      <c r="K68" s="17">
         <v>1.89</v>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       <c r="E69" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F69" s="18">
         <v>0.129</v>
       </c>
       <c r="G69" s="6">
@@ -3426,22 +3426,22 @@
       <c r="J69" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K69" s="18">
+      <c r="K69" s="17">
         <v>1.282</v>
       </c>
-      <c r="N69" s="13">
+      <c r="N69" s="12">
         <f>((H69-H70)/((H69+H70)/2))*100</f>
         <v>0.78369905956112451</v>
       </c>
-      <c r="O69" s="13">
+      <c r="O69" s="12">
         <f>((K69-K70)/((K69+K70)/2))*100</f>
         <v>-1.9312475859405109</v>
       </c>
-      <c r="P69" s="14">
+      <c r="P69" s="13">
         <f>AVERAGE(H69,H70)</f>
         <v>56.143999999999998</v>
       </c>
-      <c r="Q69" s="14">
+      <c r="Q69" s="13">
         <f>AVERAGE(K69,K70)</f>
         <v>1.2945</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="E70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="18">
         <v>0.128</v>
       </c>
       <c r="G70" s="6">
@@ -3477,7 +3477,7 @@
       <c r="J70" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K70" s="18">
+      <c r="K70" s="17">
         <v>1.3069999999999999</v>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       <c r="E71" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="18">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="G71" s="6">
@@ -3512,7 +3512,7 @@
       <c r="J71" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K71" s="18">
+      <c r="K71" s="17">
         <v>0.83899999999999997</v>
       </c>
     </row>
@@ -3532,7 +3532,7 @@
       <c r="E72" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F72" s="18">
         <v>5.5E-2</v>
       </c>
       <c r="G72" s="6">
@@ -3547,7 +3547,7 @@
       <c r="J72" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K72" s="18">
+      <c r="K72" s="17">
         <v>0.874</v>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       <c r="E73" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F73" s="18">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="G73" s="6">
@@ -3582,7 +3582,7 @@
       <c r="J73" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K73" s="18">
+      <c r="K73" s="17">
         <v>1.954</v>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       <c r="E74" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="18">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G74" s="6">
@@ -3617,7 +3617,7 @@
       <c r="J74" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K74" s="18">
+      <c r="K74" s="17">
         <v>2.0310000000000001</v>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       <c r="E75" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="18">
         <v>0.10100000000000001</v>
       </c>
       <c r="G75" s="6">
@@ -3652,7 +3652,7 @@
       <c r="J75" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K75" s="18">
+      <c r="K75" s="17">
         <v>1.7330000000000001</v>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       <c r="E76" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="18">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G76" s="6">
@@ -3687,7 +3687,7 @@
       <c r="J76" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K76" s="18">
+      <c r="K76" s="17">
         <v>1.379</v>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       <c r="E79" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G79" s="6">
@@ -3788,7 +3788,7 @@
       <c r="J79" s="6">
         <v>0</v>
       </c>
-      <c r="K79" s="18">
+      <c r="K79" s="17">
         <v>0.46100000000000002</v>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
       <c r="E80" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="18">
         <v>0.106</v>
       </c>
       <c r="G80" s="6">
@@ -3823,7 +3823,7 @@
       <c r="J80" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K80" s="18">
+      <c r="K80" s="17">
         <v>1.1479999999999999</v>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       <c r="E81" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F81" s="18">
         <v>0.112</v>
       </c>
       <c r="G81" s="6">
@@ -3858,7 +3858,7 @@
       <c r="J81" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K81" s="18">
+      <c r="K81" s="17">
         <v>1.411</v>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       <c r="E82" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F82" s="18">
         <v>0.11600000000000001</v>
       </c>
       <c r="G82" s="6">
@@ -3893,7 +3893,7 @@
       <c r="J82" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K82" s="18">
+      <c r="K82" s="17">
         <v>1.385</v>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
       <c r="E83" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F83" s="18">
         <v>0.115</v>
       </c>
       <c r="G83" s="6">
@@ -3928,7 +3928,7 @@
       <c r="J83" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K83" s="18">
+      <c r="K83" s="17">
         <v>1.446</v>
       </c>
     </row>
@@ -3966,24 +3966,24 @@
       <c r="K84" s="7">
         <v>0.17699999999999999</v>
       </c>
-      <c r="L84" s="17">
+      <c r="L84" s="16">
         <f>((100-H84)/100)*-100</f>
         <v>-22.988</v>
       </c>
-      <c r="M84" s="12"/>
-      <c r="N84" s="13">
+      <c r="M84" s="11"/>
+      <c r="N84" s="12">
         <f>((H84-H85)/((H84+H85)/2))*100</f>
         <v>156.75588034326609</v>
       </c>
-      <c r="O84" s="13">
+      <c r="O84" s="12">
         <f>((K84-K85)/((K84+K85)/2))*100</f>
         <v>-188.07076663858467</v>
       </c>
-      <c r="P84" s="14">
+      <c r="P84" s="13">
         <f>AVERAGE(H84,H85)</f>
         <v>43.173500000000004</v>
       </c>
-      <c r="Q84" s="14">
+      <c r="Q84" s="13">
         <f>AVERAGE(K84,K85)</f>
         <v>2.9674999999999998</v>
       </c>
@@ -4022,8 +4022,8 @@
       <c r="K85" s="7">
         <v>5.758</v>
       </c>
-      <c r="L85" s="12"/>
-      <c r="M85" s="11">
+      <c r="L85" s="11"/>
+      <c r="M85" s="10">
         <f>((6-K85)/6)*-100</f>
         <v>-4.0333333333333332</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="E86" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G86" s="6">
@@ -4059,7 +4059,7 @@
       <c r="J86" s="6">
         <v>0</v>
       </c>
-      <c r="K86" s="18">
+      <c r="K86" s="17">
         <v>0.42399999999999999</v>
       </c>
     </row>
@@ -4229,11 +4229,11 @@
       <c r="K91" s="7">
         <v>0.17899999999999999</v>
       </c>
-      <c r="L91" s="17">
+      <c r="L91" s="16">
         <f>((100-H91)/100)*-100</f>
         <v>-27.203000000000007</v>
       </c>
-      <c r="M91" s="12"/>
+      <c r="M91" s="11"/>
     </row>
     <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
@@ -4269,8 +4269,8 @@
       <c r="K92" s="7">
         <v>6.12</v>
       </c>
-      <c r="L92" s="12"/>
-      <c r="M92" s="11">
+      <c r="L92" s="11"/>
+      <c r="M92" s="10">
         <f>((6-K92)/6)*-100</f>
         <v>2.0000000000000018</v>
       </c>
@@ -4291,7 +4291,7 @@
       <c r="E93" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F93" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G93" s="6">
@@ -4306,7 +4306,7 @@
       <c r="J93" s="6">
         <v>0</v>
       </c>
-      <c r="K93" s="18">
+      <c r="K93" s="17">
         <v>0.439</v>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       <c r="E94" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F94" s="18">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G94" s="6">
@@ -4341,10 +4341,10 @@
       <c r="J94" s="6">
         <v>0</v>
       </c>
-      <c r="K94" s="18">
+      <c r="K94" s="17">
         <v>0.29799999999999999</v>
       </c>
-      <c r="L94" s="16" t="s">
+      <c r="L94" s="15" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4448,11 +4448,11 @@
       <c r="K97" s="7">
         <v>0.35699999999999998</v>
       </c>
-      <c r="L97" s="17">
+      <c r="L97" s="16">
         <f>((100-H97)/100)*-100</f>
         <v>-31.447999999999993</v>
       </c>
-      <c r="M97" s="12"/>
+      <c r="M97" s="11"/>
     </row>
     <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
@@ -4488,8 +4488,8 @@
       <c r="K98" s="7">
         <v>5.984</v>
       </c>
-      <c r="L98" s="12"/>
-      <c r="M98" s="11">
+      <c r="L98" s="11"/>
+      <c r="M98" s="10">
         <f>((6-K98)/6)*-100</f>
         <v>-0.26666666666666694</v>
       </c>
